--- a/People/GrantH/Data/PenguinCounts.xlsx
+++ b/People/GrantH/Data/PenguinCounts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BlackBawks\WORKSHOPS\Data_Management\Sample_File_Structure\2017\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\SCAR-Data-Management-workshop\People\GrantH\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
